--- a/excels/2021-05-17/年行业资金流入情况.xlsx
+++ b/excels/2021-05-17/年行业资金流入情况.xlsx
@@ -583,7 +583,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.15</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D4" t="n">
         <v>111</v>
@@ -604,26 +604,26 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>472.54亿</t>
+          <t>468.108亿</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>63.89%</t>
+          <t>63.66%</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>13.01‰</t>
+          <t>12.89‰</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>45.22‰</t>
+          <t>44.71‰</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.44</v>
+        <v>-0.88</v>
       </c>
       <c r="D5" t="n">
         <v>33</v>
@@ -682,22 +682,22 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>452.055亿</t>
+          <t>449.395亿</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>39.46%</t>
+          <t>38.86%</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>4.03‰</t>
+          <t>4.0‰</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>43.26‰</t>
+          <t>42.92‰</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.6899999999999999</v>
+        <v>-0.01</v>
       </c>
       <c r="D6" t="n">
         <v>53</v>
@@ -752,26 +752,26 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>326.652亿</t>
+          <t>325.137亿</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>191.69%</t>
+          <t>192.05%</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>19.61‰</t>
+          <t>19.52‰</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>31.26‰</t>
+          <t>31.05‰</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -805,7 +805,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.02</v>
+        <v>0.77</v>
       </c>
       <c r="D7" t="n">
         <v>41</v>
@@ -830,22 +830,22 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>302.167亿</t>
+          <t>297.039亿</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>87.25%</t>
+          <t>84.34%</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>10.76‰</t>
+          <t>10.58‰</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>28.92‰</t>
+          <t>28.37‰</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -879,7 +879,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.37</v>
+        <v>0.78</v>
       </c>
       <c r="D8" t="n">
         <v>35</v>
@@ -904,22 +904,22 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>233.958亿</t>
+          <t>232.779亿</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>165.18%</t>
+          <t>162.79%</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>24.04‰</t>
+          <t>23.92‰</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>22.39‰</t>
+          <t>22.23‰</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -953,7 +953,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.91</v>
+        <v>0.06</v>
       </c>
       <c r="D9" t="n">
         <v>37</v>
@@ -974,26 +974,26 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>214.533亿</t>
+          <t>214.222亿</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>324.49%</t>
+          <t>321.21%</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>26.29‰</t>
+          <t>26.25‰</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>20.53‰</t>
+          <t>20.46‰</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1013,7 +1013,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>精测电子</t>
+          <t>欧普康视</t>
         </is>
       </c>
     </row>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.43</v>
+        <v>1.34</v>
       </c>
       <c r="D10" t="n">
         <v>27</v>
@@ -1052,22 +1052,22 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>209.636亿</t>
+          <t>209.081亿</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>165.81%</t>
+          <t>175.76%</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>20.08‰</t>
+          <t>20.03‰</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>20.06‰</t>
+          <t>19.97‰</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1087,7 +1087,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>蓝思科技</t>
+          <t>上海新阳</t>
         </is>
       </c>
     </row>
@@ -1101,7 +1101,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.61</v>
+        <v>-0.11</v>
       </c>
       <c r="D11" t="n">
         <v>46</v>
@@ -1126,22 +1126,22 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>159.571亿</t>
+          <t>154.988亿</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>34.11%</t>
+          <t>33.51%</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>12.96‰</t>
+          <t>12.58‰</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>15.27‰</t>
+          <t>14.8‰</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1175,7 +1175,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.97</v>
+        <v>-1.06</v>
       </c>
       <c r="D12" t="n">
         <v>6</v>
@@ -1200,22 +1200,22 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>151.861亿</t>
+          <t>149.314亿</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>26.1%</t>
+          <t>25.53%</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>5.0‰</t>
+          <t>4.92‰</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>14.53‰</t>
+          <t>14.26‰</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1249,7 +1249,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.52</v>
+        <v>-0.26</v>
       </c>
       <c r="D13" t="n">
         <v>36</v>
@@ -1274,22 +1274,22 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>147.502亿</t>
+          <t>147.527亿</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>111.69%</t>
+          <t>111.32%</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>20.14‰</t>
+          <t>20.15‰</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>14.12‰</t>
+          <t>14.09‰</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1323,7 +1323,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.22</v>
+        <v>-1.35</v>
       </c>
       <c r="D14" t="n">
         <v>21</v>
@@ -1348,22 +1348,22 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>139.483亿</t>
+          <t>139.664亿</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>172.55%</t>
+          <t>174.79%</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>16.41‰</t>
+          <t>16.43‰</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>13.35‰</t>
+          <t>13.34‰</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1389,7 +1389,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.96</v>
+        <v>-0.55</v>
       </c>
       <c r="D15" t="n">
         <v>117</v>
@@ -1414,22 +1414,22 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>134.119亿</t>
+          <t>134.605亿</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>10.77%</t>
+          <t>10.93%</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>2.9‰</t>
+          <t>2.91‰</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>12.84‰</t>
+          <t>12.86‰</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>云南白药</t>
+          <t>沃森生物</t>
         </is>
       </c>
     </row>
@@ -1463,7 +1463,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1.05</v>
+        <v>-0.24</v>
       </c>
       <c r="D16" t="n">
         <v>46</v>
@@ -1488,22 +1488,22 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>133.097亿</t>
+          <t>132.825亿</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>71.7%</t>
+          <t>73.1%</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
+          <t>12.64‰</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
           <t>12.69‰</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>12.74‰</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -1537,7 +1537,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.53</v>
+        <v>-0.71</v>
       </c>
       <c r="D17" t="n">
         <v>84</v>
@@ -1558,26 +1558,26 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>119.32亿</t>
+          <t>117.238亿</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>25.07%</t>
+          <t>24.99%</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>7.54‰</t>
+          <t>7.41‰</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>11.42‰</t>
+          <t>11.2‰</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -1611,7 +1611,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.53</v>
+        <v>-0.25</v>
       </c>
       <c r="D18" t="n">
         <v>44</v>
@@ -1632,26 +1632,26 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>109.484亿</t>
+          <t>112.795亿</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>17.04%</t>
+          <t>17.84%</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>5.07‰</t>
+          <t>5.22‰</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>10.48‰</t>
+          <t>10.77‰</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.29</v>
+        <v>-0.35</v>
       </c>
       <c r="D19" t="n">
         <v>18</v>
@@ -1710,22 +1710,22 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>94.57亿</t>
+          <t>94.439亿</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>70.2%</t>
+          <t>71.06%</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>9.99‰</t>
+          <t>9.98‰</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>9.05‰</t>
+          <t>9.02‰</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -1759,7 +1759,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1.28</v>
+        <v>-0.4</v>
       </c>
       <c r="D20" t="n">
         <v>35</v>
@@ -1780,26 +1780,26 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>91.054亿</t>
+          <t>89.61亿</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>111.75%</t>
+          <t>107.92%</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>7.76‰</t>
+          <t>7.64‰</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>8.71‰</t>
+          <t>8.56‰</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -1833,7 +1833,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.57</v>
+        <v>1.91</v>
       </c>
       <c r="D21" t="n">
         <v>12</v>
@@ -1858,22 +1858,22 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>88.058亿</t>
+          <t>87.619亿</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>120.09%</t>
+          <t>120.01%</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>20.03‰</t>
+          <t>19.93‰</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>8.43‰</t>
+          <t>8.37‰</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -1907,7 +1907,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-0.19</v>
+        <v>-0.55</v>
       </c>
       <c r="D22" t="n">
         <v>11</v>
@@ -1932,22 +1932,22 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>84.034亿</t>
+          <t>83.333亿</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>364.88%</t>
+          <t>337.23%</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>42.02‰</t>
+          <t>41.67‰</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>8.04‰</t>
+          <t>7.96‰</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -1981,7 +1981,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.66</v>
+        <v>-0.29</v>
       </c>
       <c r="D23" t="n">
         <v>51</v>
@@ -2002,26 +2002,26 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>79.924亿</t>
+          <t>81.089亿</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>43.58%</t>
+          <t>45.0%</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>7.09‰</t>
+          <t>7.19‰</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>7.65‰</t>
+          <t>7.74‰</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -2055,7 +2055,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.44</v>
+        <v>-0.14</v>
       </c>
       <c r="D24" t="n">
         <v>13</v>
@@ -2080,22 +2080,22 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>78.086亿</t>
+          <t>77.592亿</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>72.44%</t>
+          <t>73.37%</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>19.6‰</t>
+          <t>19.48‰</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>7.47‰</t>
+          <t>7.41‰</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -2129,7 +2129,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3.69</v>
+        <v>-1.61</v>
       </c>
       <c r="D25" t="n">
         <v>13</v>
@@ -2154,22 +2154,22 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>76.723亿</t>
+          <t>77.346亿</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>119.93%</t>
+          <t>124.26%</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>4.56‰</t>
+          <t>4.6‰</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>7.34‰</t>
+          <t>7.39‰</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -2203,7 +2203,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.85</v>
+        <v>-0.03</v>
       </c>
       <c r="D26" t="n">
         <v>44</v>
@@ -2224,26 +2224,26 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>76.492亿</t>
+          <t>76.423亿</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>20.26%</t>
+          <t>20.33%</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>2.5‰</t>
+          <t>2.49‰</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>7.32‰</t>
+          <t>7.3‰</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -2263,7 +2263,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>第一创业</t>
+          <t>光大证券</t>
         </is>
       </c>
     </row>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-0.46</v>
+        <v>-0.31</v>
       </c>
       <c r="D27" t="n">
         <v>37</v>
@@ -2298,26 +2298,26 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>58.386亿</t>
+          <t>56.85亿</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>8.27%</t>
+          <t>8.18%</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>2.44‰</t>
+          <t>2.37‰</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>5.59‰</t>
+          <t>5.43‰</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -2351,7 +2351,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.93</v>
+        <v>-1.6</v>
       </c>
       <c r="D28" t="n">
         <v>16</v>
@@ -2376,22 +2376,22 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>52.618亿</t>
+          <t>52.529亿</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>106.27%</t>
+          <t>106.28%</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>5.7‰</t>
+          <t>5.69‰</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>5.04‰</t>
+          <t>5.02‰</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -2417,7 +2417,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.26</v>
+        <v>-0.85</v>
       </c>
       <c r="D29" t="n">
         <v>9</v>
@@ -2442,22 +2442,22 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>49.449亿</t>
+          <t>49.897亿</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>160.92%</t>
+          <t>166.47%</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>7.84‰</t>
+          <t>7.91‰</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>4.73‰</t>
+          <t>4.77‰</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -2491,7 +2491,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.73</v>
+        <v>-0.31</v>
       </c>
       <c r="D30" t="n">
         <v>17</v>
@@ -2516,22 +2516,22 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>46.615亿</t>
+          <t>46.44亿</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>340.16%</t>
+          <t>339.31%</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>12.45‰</t>
+          <t>12.4‰</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>4.46‰</t>
+          <t>4.44‰</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-0.61</v>
+        <v>0.11</v>
       </c>
       <c r="D31" t="n">
         <v>24</v>
@@ -2586,26 +2586,26 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>43.897亿</t>
+          <t>44.229亿</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>10.65%</t>
+          <t>10.86%</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>5.38‰</t>
+          <t>5.42‰</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>4.2‰</t>
+          <t>4.22‰</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -2635,65 +2635,73 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>文教休闲</t>
+          <t>房地产</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-0.08</v>
+        <v>-0.32</v>
       </c>
       <c r="D32" t="n">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>73.01亿</t>
+          <t>422.67亿</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2.35%</t>
+          <t>2.62%</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.54%</t>
+          <t>3.11%</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>42.013亿</t>
+          <t>43.514亿</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>140.39%</t>
+          <t>10.83%</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>13.55‰</t>
+          <t>2.7‰</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>4.02‰</t>
+          <t>4.16‰</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>晨光文具</t>
+          <t>万科A</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>科锐国际</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
+          <t>格力地产</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>新城控股</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>华联控股</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -2701,73 +2709,65 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>房地产</t>
+          <t>文教休闲</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.64</v>
+        <v>-1.13</v>
       </c>
       <c r="D33" t="n">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>422.67亿</t>
+          <t>73.01亿</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2.62%</t>
+          <t>2.35%</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>3.11%</t>
+          <t>0.54%</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>41.033亿</t>
+          <t>41.366亿</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>10.03%</t>
+          <t>138.88%</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>2.55‰</t>
+          <t>13.34‰</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>3.93‰</t>
+          <t>3.95‰</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>万科A</t>
+          <t>晨光文具</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>格力地产</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>新城控股</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>华联控股</t>
-        </is>
-      </c>
+          <t>科锐国际</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -2779,7 +2779,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.22</v>
+        <v>0.04</v>
       </c>
       <c r="D34" t="n">
         <v>20</v>
@@ -2804,22 +2804,22 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>39.052亿</t>
+          <t>35.194亿</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>2.62%</t>
+          <t>2.36%</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>2.36‰</t>
+          <t>2.13‰</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>3.74‰</t>
+          <t>3.36‰</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.35</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="D35" t="n">
         <v>14</v>
@@ -2878,22 +2878,22 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>33.284亿</t>
+          <t>32.954亿</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>116.84%</t>
+          <t>115.56%</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>4.62‰</t>
+          <t>4.58‰</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>3.19‰</t>
+          <t>3.15‰</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
@@ -2908,7 +2908,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>宁波港</t>
+          <t>中远海能</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -2927,7 +2927,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.14</v>
+        <v>-0.53</v>
       </c>
       <c r="D36" t="n">
         <v>8</v>
@@ -2948,26 +2948,26 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>30.993亿</t>
+          <t>31.607亿</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>113.32%</t>
+          <t>120.18%</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>15.79‰</t>
+          <t>16.1‰</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>2.97‰</t>
+          <t>3.02‰</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
@@ -2980,16 +2980,8 @@
           <t>裕同科技</t>
         </is>
       </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>集友股份</t>
-        </is>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>集友股份</t>
-        </is>
-      </c>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -3001,7 +2993,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.39</v>
+        <v>0.72</v>
       </c>
       <c r="D37" t="n">
         <v>11</v>
@@ -3022,26 +3014,26 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>30.895亿</t>
+          <t>31.193亿</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>182.82%</t>
+          <t>187.97%</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>10.43‰</t>
+          <t>10.53‰</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>2.96‰</t>
+          <t>2.98‰</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -3075,7 +3067,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1.56</v>
+        <v>-0.28</v>
       </c>
       <c r="D38" t="n">
         <v>10</v>
@@ -3100,22 +3092,22 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>29.252亿</t>
+          <t>28.962亿</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>45.48%</t>
+          <t>43.87%</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>5.35‰</t>
+          <t>5.3‰</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>2.8‰</t>
+          <t>2.77‰</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
@@ -3149,7 +3141,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.3</v>
+        <v>-0.15</v>
       </c>
       <c r="D39" t="n">
         <v>9</v>
@@ -3170,26 +3162,26 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>21.496亿</t>
+          <t>21.624亿</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>155.15%</t>
+          <t>158.44%</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>17.36‰</t>
+          <t>17.46‰</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>2.06‰</t>
+          <t>2.07‰</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -3202,16 +3194,8 @@
           <t>森马服饰</t>
         </is>
       </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>搜于特</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>搜于特</t>
-        </is>
-      </c>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -3223,7 +3207,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>-0.12</v>
+        <v>0.3</v>
       </c>
       <c r="D40" t="n">
         <v>15</v>
@@ -3248,22 +3232,22 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>14.229亿</t>
+          <t>14.396亿</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>18.6%</t>
+          <t>19.1%</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>5.25‰</t>
+          <t>5.31‰</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>1.36‰</t>
+          <t>1.37‰</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
@@ -3297,7 +3281,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.82</v>
+        <v>0.33</v>
       </c>
       <c r="D41" t="n">
         <v>5</v>
@@ -3322,22 +3306,22 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>11.517亿</t>
+          <t>11.237亿</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>120.36%</t>
+          <t>114.35%</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>9.13‰</t>
+          <t>8.91‰</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>1.1‰</t>
+          <t>1.07‰</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
@@ -3371,7 +3355,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.4</v>
+        <v>-1.01</v>
       </c>
       <c r="D42" t="n">
         <v>32</v>
@@ -3396,22 +3380,22 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>9.757亿</t>
+          <t>9.141亿</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>4.43%</t>
+          <t>4.22%</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
+          <t>0.82‰</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
           <t>0.87‰</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>0.93‰</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
@@ -3445,7 +3429,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.88</v>
+        <v>-0.48</v>
       </c>
       <c r="D43" t="n">
         <v>13</v>
@@ -3470,22 +3454,22 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>9.469亿</t>
+          <t>9.026亿</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>77.53%</t>
+          <t>70.91%</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>3.41‰</t>
+          <t>3.25‰</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>0.91‰</t>
+          <t>0.86‰</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
@@ -3511,7 +3495,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1.08</v>
+        <v>0.08</v>
       </c>
       <c r="D44" t="n">
         <v>7</v>
@@ -3536,22 +3520,22 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>6.776亿</t>
+          <t>7.001亿</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>42.42%</t>
+          <t>44.98%</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>5.53‰</t>
+          <t>5.71‰</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>0.65‰</t>
+          <t>0.67‰</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
@@ -3585,7 +3569,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>-0.28</v>
+        <v>-0.73</v>
       </c>
       <c r="D45" t="n">
         <v>10</v>
@@ -3610,17 +3594,17 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>4.916亿</t>
+          <t>4.93亿</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>63.29%</t>
+          <t>64.04%</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>2.37‰</t>
+          <t>2.38‰</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3655,71 +3639,71 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>仪器仪表</t>
+          <t>船舶制造</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.68</v>
+        <v>-0.71</v>
       </c>
       <c r="D46" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>174.73亿</t>
+          <t>18.9亿</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>7.37%</t>
+          <t>0.85%</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>1.28%</t>
+          <t>0.14%</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>4.686亿</t>
+          <t>4.59亿</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>6.33%</t>
+          <t>34.06%</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>1.98‰</t>
+          <t>2.06‰</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>0.45‰</t>
+          <t>0.44‰</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>拓邦股份</t>
+          <t>中国船舶</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>拓邦股份</t>
+          <t>中国船舶</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>汇川技术</t>
+          <t>中船防务</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>汇川技术</t>
+          <t>中船防务</t>
         </is>
       </c>
     </row>
@@ -3729,71 +3713,71 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>船舶制造</t>
+          <t>仪器仪表</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2.16</v>
+        <v>0.11</v>
       </c>
       <c r="D47" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>18.9亿</t>
+          <t>174.73亿</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0.85%</t>
+          <t>7.37%</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>0.14%</t>
+          <t>1.28%</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>4.349亿</t>
+          <t>4.229亿</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>31.35%</t>
+          <t>5.77%</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>1.95‰</t>
+          <t>1.78‰</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>0.42‰</t>
+          <t>0.4‰</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>中国船舶</t>
+          <t>拓邦股份</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>中国船舶</t>
+          <t>拓邦股份</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>中船防务</t>
+          <t>汇川技术</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>中船防务</t>
+          <t>汇川技术</t>
         </is>
       </c>
     </row>
@@ -3807,7 +3791,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>-0.11</v>
+        <v>-0.19</v>
       </c>
       <c r="D48" t="n">
         <v>8</v>
@@ -3832,22 +3816,22 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>3.404亿</t>
+          <t>3.15亿</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>5.14%</t>
+          <t>4.77%</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>2.26‰</t>
+          <t>2.09‰</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>0.33‰</t>
+          <t>0.3‰</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
@@ -3877,65 +3861,73 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>珠宝首饰</t>
+          <t>环保工程</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3.24</v>
+        <v>1.03</v>
       </c>
       <c r="D49" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>14.75亿</t>
+          <t>16.5亿</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>1.57%</t>
+          <t>0.76%</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>0.11%</t>
+          <t>0.12%</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>2.503亿</t>
+          <t>2.346亿</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>31.07%</t>
+          <t>15.3%</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>2.67‰</t>
+          <t>1.08‰</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>0.24‰</t>
+          <t>0.22‰</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>周大生</t>
+          <t>碧水源</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>周大生</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
+          <t>高能环境</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>旺能环境</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>旺能环境</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -3943,73 +3935,65 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>环保工程</t>
+          <t>珠宝首饰</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.71</v>
+        <v>-1.26</v>
       </c>
       <c r="D50" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>16.5亿</t>
+          <t>14.75亿</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0.76%</t>
+          <t>1.57%</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>0.12%</t>
+          <t>0.11%</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>2.232亿</t>
+          <t>2.253亿</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>14.2%</t>
+          <t>27.22%</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>1.03‰</t>
+          <t>2.4‰</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>0.21‰</t>
+          <t>0.22‰</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>碧水源</t>
+          <t>周大生</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>高能环境</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>旺能环境</t>
-        </is>
-      </c>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>旺能环境</t>
-        </is>
-      </c>
+          <t>周大生</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -4021,7 +4005,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.85</v>
+        <v>1.43</v>
       </c>
       <c r="D51" t="n">
         <v>26</v>
@@ -4042,26 +4026,26 @@
         </is>
       </c>
       <c r="H51" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>0.105亿</t>
+          <t>-0.038亿</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>0.04%</t>
+          <t>-0.01%</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>0.01‰</t>
+          <t>-0.0‰</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>0.01‰</t>
+          <t>-0.0‰</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
@@ -4076,7 +4060,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>华能水电</t>
+          <t>长江电力</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -4095,7 +4079,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>-0.58</v>
+        <v>0.01</v>
       </c>
       <c r="D52" t="n">
         <v>3</v>
@@ -4116,38 +4100,30 @@
         </is>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>-0.39亿</t>
+          <t>-0.629亿</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>-4.36%</t>
+          <t>-7.0%</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>-1.03‰</t>
+          <t>-1.66‰</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>-0.04‰</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>亚厦股份</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>亚厦股份</t>
-        </is>
-      </c>
+          <t>-0.06‰</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr">
         <is>
           <t>金螳螂</t>
@@ -4169,7 +4145,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1.97</v>
+        <v>-0.3</v>
       </c>
       <c r="D53" t="n">
         <v>19</v>
@@ -4194,22 +4170,22 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>-2.449亿</t>
+          <t>-2.567亿</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>-4.49%</t>
+          <t>-4.87%</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>-0.38‰</t>
+          <t>-0.4‰</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>-0.23‰</t>
+          <t>-0.25‰</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
@@ -4239,71 +4215,71 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>民航机场</t>
+          <t>公用事业</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2.35</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>194.85亿</t>
+          <t>20.81亿</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>3.52%</t>
+          <t>0.79%</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>1.43%</t>
+          <t>0.15%</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>-3.272亿</t>
+          <t>-2.937亿</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>-1.38%</t>
+          <t>-12.63%</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>-0.59‰</t>
+          <t>-1.11‰</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>-0.31‰</t>
+          <t>-0.28‰</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>南方航空</t>
+          <t>深圳燃气</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>白云机场</t>
+          <t>兴蓉环境</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>上海机场</t>
+          <t>瀚蓝环境</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>上海机场</t>
+          <t>瀚蓝环境</t>
         </is>
       </c>
     </row>
@@ -4313,71 +4289,71 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>公用事业</t>
+          <t>民航机场</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.7</v>
+        <v>-0.6</v>
       </c>
       <c r="D55" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>20.81亿</t>
+          <t>194.85亿</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>0.79%</t>
+          <t>3.52%</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>0.15%</t>
+          <t>1.43%</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>-3.273亿</t>
+          <t>-3.611亿</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>-13.67%</t>
+          <t>-1.55%</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>-1.24‰</t>
+          <t>-0.65‰</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>-0.31‰</t>
+          <t>-0.34‰</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>深圳燃气</t>
+          <t>南方航空</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>兴蓉环境</t>
+          <t>白云机场</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>瀚蓝环境</t>
+          <t>上海机场</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>瀚蓝环境</t>
+          <t>上海机场</t>
         </is>
       </c>
     </row>
@@ -4391,7 +4367,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1.04</v>
+        <v>-0.04</v>
       </c>
       <c r="D56" t="n">
         <v>21</v>
@@ -4412,26 +4388,26 @@
         </is>
       </c>
       <c r="H56" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>-6.235亿</t>
+          <t>-5.824亿</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>-6.91%</t>
+          <t>-6.65%</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>-1.52‰</t>
+          <t>-1.42‰</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>-0.6‰</t>
+          <t>-0.56‰</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
@@ -4465,7 +4441,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.54</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="D57" t="n">
         <v>8</v>
@@ -4490,22 +4466,22 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>-11.075亿</t>
+          <t>-10.971亿</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>-49.29%</t>
+          <t>-48.93%</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>-3.74‰</t>
+          <t>-3.7‰</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>-1.06‰</t>
+          <t>-1.05‰</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
@@ -4539,7 +4515,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.33</v>
+        <v>-0.88</v>
       </c>
       <c r="D58" t="n">
         <v>4</v>
@@ -4564,22 +4540,22 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>-22.879亿</t>
+          <t>-22.328亿</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>-32.43%</t>
+          <t>-32.58%</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>-13.57‰</t>
+          <t>-13.24‰</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>-2.19‰</t>
+          <t>-2.13‰</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
@@ -4613,7 +4589,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.5600000000000001</v>
+        <v>-0.43</v>
       </c>
       <c r="D59" t="n">
         <v>32</v>
@@ -4638,22 +4614,22 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>-28.606亿</t>
+          <t>-27.783亿</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>-17.91%</t>
+          <t>-17.62%</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>-2.93‰</t>
+          <t>-2.85‰</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>-2.74‰</t>
+          <t>-2.65‰</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
@@ -4687,7 +4663,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.77</v>
+        <v>-0.53</v>
       </c>
       <c r="D60" t="n">
         <v>8</v>
@@ -4712,22 +4688,22 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>-124.957亿</t>
+          <t>-123.754亿</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>-46.12%</t>
+          <t>-46.7%</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>-15.88‰</t>
+          <t>-15.73‰</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>-11.96‰</t>
+          <t>-11.82‰</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
@@ -4761,7 +4737,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.51</v>
+        <v>0.3</v>
       </c>
       <c r="D61" t="n">
         <v>5</v>
@@ -4786,12 +4762,12 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>-242.453亿</t>
+          <t>-242.478亿</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>-115.91%</t>
+          <t>-117.15%</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -4801,7 +4777,7 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>-23.2‰</t>
+          <t>-23.16‰</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
@@ -4835,7 +4811,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.8</v>
+        <v>-0.76</v>
       </c>
       <c r="D62" t="n">
         <v>21</v>
@@ -4856,26 +4832,26 @@
         </is>
       </c>
       <c r="H62" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>-597.257亿</t>
+          <t>-593.243亿</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>-26.58%</t>
+          <t>-26.46%</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>-10.66‰</t>
+          <t>-10.59‰</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>-57.16‰</t>
+          <t>-56.66‰</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
